--- a/Data/config.xlsx
+++ b/Data/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\test\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\Template\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6517ECA4-7D29-4D04-A159-717BA080611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931966BE-BD49-464B-B6C7-C36F8AFA9E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="1890" windowWidth="22680" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,62 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxRetryCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 재수행 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 재수행 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeqMaxRetryCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process_Names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill 할 프로세스명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome,iexplore,msedge,excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA_Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA_Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,16 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -392,6 +448,66 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
